--- a/trend_results/Rivers/OrouatributaryatdsKimboltonSTP_ba47b36f2d.xlsx
+++ b/trend_results/Rivers/OrouatributaryatdsKimboltonSTP_ba47b36f2d.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.168937424369248</v>
+        <v>0.831062575630752</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9418388500407791</v>
+        <v>0.0581611499592209</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0030020049258686</v>
+        <v>0.996997995074131</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.46807420936949</v>
+        <v>0.53192579063051</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2721,6 +2721,1094 @@
         </is>
       </c>
       <c r="W25" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>15</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.149450721446818</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.492063492063492</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.0330767489246095</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.08789979083831539</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0100098330855463</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-2.20511659497396</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>15</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.860864496250512</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.851428571428571</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0243691130298273</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.0099825328244344</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0595499030972033</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.235450367437945</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.999999999999877</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0168539325842697</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0033921183832838</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0045386352495372</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.0024987395785075</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-10.7686297882026</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.476848589276009</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0112359550561798</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.764044943820225</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>645</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.14993842364532</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-13.5357331555094</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8.76737390806381</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0232462672318326</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.999999999547157</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.544378698224852</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.479289940828402</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.0004841704744453</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0016961725696708</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-9.68340948890766</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.99557549712002</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.269230769230769</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.185897435897436</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.000186020453555</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.0003938005390835</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-4.65051133887719</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.999268506736394</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.113207547169811</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8490566037735851</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.0166054401327839</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.0276896708465673</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.0061883189712158</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-3.63357552139691</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.927303514958052</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.554285714285714</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0099795081967213</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0011098422427812</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0187243677375257</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.134858218874613</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Very likely increasing</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.999998265783945</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0393258426966292</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8764044943820229</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0256761459531481</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0374815558869371</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.0145464954782798</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-5.05435943959609</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.99999999999955</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.741573033707865</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0455068896333535</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0596243387661388</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.0336855796343839</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-5.05632107037261</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.999999999997864</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.662921348314607</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0050772671067589</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0067972085385878</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0039402246921473</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-7.4665692746455</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.999615687854865</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.847457627118644</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0949252168153905</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.138691100821597</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0535002761307266</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-4.72264760275574</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OrouatributaryatdsKimboltonSTP_ba47b36f2d.xlsx
+++ b/trend_results/Rivers/OrouatributaryatdsKimboltonSTP_ba47b36f2d.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.831062575630752</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.948275862068966</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.425</v>
+        <v>10.655</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0416712745852872</v>
+        <v>-0.0031696112627644</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0975202116416737</v>
+        <v>-0.171366169110862</v>
       </c>
       <c r="M2" t="n">
-        <v>0.174170480003881</v>
+        <v>0.152762581910153</v>
       </c>
       <c r="N2" t="n">
-        <v>0.399724456453594</v>
+        <v>-0.0297476420719333</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.413853687854465</v>
+        <v>0.0099651488995282</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.627118644067797</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0004996608156188</v>
+        <v>0.0022674687266616</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0019762668733412</v>
+        <v>0.0008357924849389</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0015051510989011</v>
+        <v>0.0045667119497062</v>
       </c>
       <c r="N3" t="n">
-        <v>2.77589342010449</v>
+        <v>10.7974701269604</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.970034029836055</v>
+        <v>0.994230005754871</v>
       </c>
       <c r="G4" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H4" t="n">
-        <v>0.88135593220339</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -770,16 +770,16 @@
         <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>-61.0840487637363</v>
+        <v>-102.529231119199</v>
       </c>
       <c r="L4" t="n">
-        <v>-302.555368249842</v>
+        <v>-240.964124057074</v>
       </c>
       <c r="M4" t="n">
-        <v>-11.4684942338517</v>
+        <v>-26.2040978970524</v>
       </c>
       <c r="N4" t="n">
-        <v>-10.180674793956</v>
+        <v>-17.0882051865332</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,16 +846,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.925559129965993</v>
+        <v>0.192764905812351</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7307692307692309</v>
+        <v>0.69811320754717</v>
       </c>
       <c r="H5" t="n">
-        <v>0.307692307692308</v>
+        <v>0.320754716981132</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0.005</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,14 +933,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.732061800061705</v>
+        <v>0.933354505223194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.271186440677966</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="H6" t="n">
         <v>0.220338983050847</v>
@@ -952,16 +952,16 @@
         <v>0.004</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.0003069327731092</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0005435267857142</v>
+        <v>-0.0008553864168618</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-7.67331932773109</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8109665784418451</v>
+        <v>0.6174140147687051</v>
       </c>
       <c r="G7" t="n">
         <v>0.11864406779661</v>
       </c>
       <c r="H7" t="n">
-        <v>0.898305084745763</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.407</v>
+        <v>0.314</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0075068227762803</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.050616548244349</v>
+        <v>-0.0382924513022356</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003852864247837</v>
+        <v>0.009656571082961</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.84442820056028</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0581611499592209</v>
+        <v>0.447942490896577</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.758620689655172</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.355</v>
+        <v>7.35</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0466400638467678</v>
+        <v>-0.0027211719182475</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0969432224407005</v>
+        <v>-0.0529872882392781</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0440933226147035</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.634127312668495</v>
+        <v>-0.0370227471870409</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1202,11 +1202,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.890064144685649</v>
+        <v>0.528766206292791</v>
       </c>
       <c r="G9" t="n">
         <v>0.0169491525423729</v>
@@ -1218,19 +1218,19 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.417</v>
+        <v>0.35</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0097879623186854</v>
+        <v>-0.0008774046677007</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0574179702325873</v>
+        <v>-0.0433109292629008</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0041916864286507</v>
+        <v>0.023957230156202</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.34723316994855</v>
+        <v>-0.250687047914491</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1282,46 +1282,46 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.767368256487342</v>
+        <v>0.557935040461593</v>
       </c>
       <c r="G10" t="n">
-        <v>0.322033898305085</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.271186440677966</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.0049092741935483</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.433087237426207</v>
+        <v>-0.0494963172415087</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0365537534655363</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>-0.711489013557734</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.766507369326608</v>
+        <v>0.233492630673392</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1400,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.76</v>
+        <v>0.045</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0165647927920664</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0692879856469666</v>
+        <v>-0.0010024794950864</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0164242490959969</v>
+        <v>0.0071778144205473</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.17957799895611</v>
+        <v>4.45970695970696</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.385542031702176</v>
+        <v>0.437637745657</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.745762711864407</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.038</v>
+        <v>1.58</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0006229567425056</v>
+        <v>0.0209913793103448</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.001198345784175</v>
+        <v>-0.160286489445313</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0030103021978022</v>
+        <v>0.192850567736219</v>
       </c>
       <c r="N12" t="n">
-        <v>1.63935984869899</v>
+        <v>1.32856831078132</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.528766206292791</v>
+        <v>0.945321671186844</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.932203389830508</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.58</v>
+        <v>10.45</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.008780048076923</v>
+        <v>0.0432051865332118</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.185505539149652</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.105866929906485</v>
+        <v>0.09751810340791769</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.555699245374878</v>
+        <v>0.413446761083367</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1657,35 +1657,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.996997995074131</v>
+        <v>0.972077576883062</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H14" t="n">
-        <v>0.888888888888889</v>
+        <v>0.53781512605042</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>10.4</v>
+        <v>0.024</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0913078026852821</v>
+        <v>-0.0011234620642515</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0261102634755212</v>
+        <v>-0.0023503973630834</v>
       </c>
       <c r="M14" t="n">
-        <v>0.121028416531925</v>
+        <v>-0.0001999862900223</v>
       </c>
       <c r="N14" t="n">
-        <v>0.877959641204636</v>
+        <v>-4.68109193438141</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9999462249018209</v>
+        <v>0.980524211590134</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0252100840336134</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H15" t="n">
-        <v>0.554621848739496</v>
+        <v>0.756302521008403</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.024</v>
+        <v>716</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0027087236533957</v>
+        <v>-38.2072599531616</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0046216076175412</v>
+        <v>-100.094616978122</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0015096614933949</v>
+        <v>-6.00048203139695</v>
       </c>
       <c r="N15" t="n">
-        <v>-11.2863485558158</v>
+        <v>-5.33620949066503</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.869455939568395</v>
+        <v>0.111432164340851</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0168067226890756</v>
+        <v>0.745454545454545</v>
       </c>
       <c r="H16" t="n">
-        <v>0.756302521008403</v>
+        <v>0.281818181818182</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>740</v>
+        <v>0.005</v>
       </c>
       <c r="K16" t="n">
-        <v>-19.991789819376</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-52.3988360519897</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2.57012204215106</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.7015932188346</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,29 +1930,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.939760082844868</v>
+        <v>0.808571216459984</v>
       </c>
       <c r="G17" t="n">
-        <v>0.738738738738739</v>
+        <v>0.26890756302521</v>
       </c>
       <c r="H17" t="n">
-        <v>0.288288288288288</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-0.0001581168831168</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.983286236151488</v>
+        <v>0.0615212070625266</v>
       </c>
       <c r="G18" t="n">
-        <v>0.252100840336134</v>
+        <v>0.159663865546218</v>
       </c>
       <c r="H18" t="n">
-        <v>0.19327731092437</v>
+        <v>0.8151260504201679</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.004</v>
+        <v>0.329</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0001461584633853</v>
+        <v>0.0008335235052487001</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0004294532627865</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.0060639530022253</v>
       </c>
       <c r="N18" t="n">
-        <v>-3.65396158463385</v>
+        <v>0.253350609498098</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.31188869133282</v>
+        <v>0.18924032677149</v>
       </c>
       <c r="G19" t="n">
-        <v>0.151260504201681</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.831932773109244</v>
+        <v>0.612068965517241</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4065</v>
+        <v>7.42</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.008837800109285801</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0242457196529962</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0041800348378363</v>
+        <v>0.0073338200187253</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-0.119107818184445</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2178,11 +2178,7 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2192,46 +2188,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.53192579063051</v>
+        <v>0.0366197397319926</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H20" t="n">
-        <v>0.632478632478632</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>7.42</v>
+        <v>0.379</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.004665602189781</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0162653164855004</v>
+        <v>0.0002555728793663</v>
       </c>
       <c r="M20" t="n">
-        <v>0.016693958700738</v>
+        <v>0.009522779200130499</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.23102960152534</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2236,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2269,7 +2265,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2290,35 +2290,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.308415516245746</v>
+        <v>0.941803208495522</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.882352941176471</v>
+        <v>0.747899159663866</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.435</v>
+        <v>0.76</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0013994252873563</v>
+        <v>-0.0100022820629849</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0019967561226602</v>
+        <v>-0.0204344769683002</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0062699689366312</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.321706962610649</v>
+        <v>-1.3160897451296</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2370,46 +2370,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.980998089801444</v>
+        <v>0.999159919190322</v>
       </c>
       <c r="G22" t="n">
-        <v>0.184873949579832</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.235294117647059</v>
+        <v>0.672268907563025</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>0.059</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0858200187969925</v>
+        <v>-0.0041543448589626</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.247834837390142</v>
+        <v>-0.0064153981264637</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-0.0013955582460172</v>
       </c>
       <c r="N22" t="n">
-        <v>-2.86066729323308</v>
+        <v>-7.04126247281812</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9981520558245121</v>
+        <v>0.966289318863996</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.773109243697479</v>
+        <v>0.873949579831933</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8</v>
+        <v>1.82</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0183375171154724</v>
+        <v>-0.0998632946001367</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0349432321465551</v>
+        <v>-0.167094785774841</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.009973853337716901</v>
+        <v>-0.0100866221559341</v>
       </c>
       <c r="N23" t="n">
-        <v>-2.29218963943405</v>
+        <v>-5.48699420879872</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2552,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.999999563952068</v>
+        <v>0.047572106881219</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="H24" t="n">
-        <v>0.697478991596639</v>
+        <v>0.5</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06</v>
+        <v>1.41</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0064153981264637</v>
+        <v>-0.09114334749918269</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0092969174617798</v>
+        <v>-0.156393829302188</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0043214069889014</v>
+        <v>-0.0400751870974891</v>
       </c>
       <c r="N24" t="n">
-        <v>-10.6923302107728</v>
+        <v>-6.4640671985236</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2643,11 +2643,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.971712741014349</v>
+        <v>0.805525077358348</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.865546218487395</v>
+        <v>0.851428571428571</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.82</v>
+        <v>10.37</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0963489208633094</v>
+        <v>0.0166173794358507</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.159724373741792</v>
+        <v>-0.0139174994932369</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0124989473130336</v>
+        <v>0.0434637937626065</v>
       </c>
       <c r="N25" t="n">
-        <v>-5.29389675073128</v>
+        <v>0.160244739014954</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.149450721446818</v>
+        <v>0.999999986830674</v>
       </c>
       <c r="G26" t="n">
-        <v>0.222222222222222</v>
+        <v>0.0168539325842697</v>
       </c>
       <c r="H26" t="n">
-        <v>0.492063492063492</v>
+        <v>0.533707865168539</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.5</v>
+        <v>0.031</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0330767489246095</v>
+        <v>-0.0023430892305332</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.08789979083831539</v>
+        <v>-0.0033190826303121</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0100098330855463</v>
+        <v>-0.001661737943585</v>
       </c>
       <c r="N26" t="n">
-        <v>-2.20511659497396</v>
+        <v>-7.55835235655889</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2836,35 +2836,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.860864496250512</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H27" t="n">
-        <v>0.851428571428571</v>
+        <v>0.7752808988764049</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>10.35</v>
+        <v>603</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0243691130298273</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0099825328244344</v>
+        <v>-13.2725694278063</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0595499030972033</v>
+        <v>8.247653180622221</v>
       </c>
       <c r="N27" t="n">
-        <v>0.235450367437945</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.999999999999877</v>
+        <v>0.999999990994102</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0168539325842697</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="H28" t="n">
-        <v>0.550561797752809</v>
+        <v>0.470238095238095</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0315</v>
+        <v>0.005</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0033921183832838</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0045386352495372</v>
+        <v>-0.0012869251962696</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0024987395785075</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-10.7686297882026</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.476848589276009</v>
+        <v>0.99815436605051</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0112359550561798</v>
+        <v>0.267857142857143</v>
       </c>
       <c r="H29" t="n">
-        <v>0.764044943820225</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>645</v>
+        <v>0.004</v>
       </c>
       <c r="K29" t="n">
-        <v>0.14993842364532</v>
+        <v>-0.0001815959562479</v>
       </c>
       <c r="L29" t="n">
-        <v>-13.5357331555094</v>
+        <v>-0.0003568759101492</v>
       </c>
       <c r="M29" t="n">
-        <v>8.76737390806381</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0232462672318326</v>
+        <v>-4.53989890619821</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.999999999547157</v>
+        <v>0.999926455359426</v>
       </c>
       <c r="G30" t="n">
-        <v>0.544378698224852</v>
+        <v>0.113095238095238</v>
       </c>
       <c r="H30" t="n">
-        <v>0.479289940828402</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005</v>
+        <v>0.4425</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0004841704744453</v>
+        <v>-0.0169767600820232</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0016961725696708</v>
+        <v>-0.0264855351467981</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>-0.0080274725274725</v>
       </c>
       <c r="N30" t="n">
-        <v>-9.68340948890766</v>
+        <v>-3.83655595073972</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.99557549712002</v>
+        <v>0.936752671886895</v>
       </c>
       <c r="G31" t="n">
-        <v>0.269230769230769</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.185897435897436</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.004</v>
+        <v>7.4</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.000186020453555</v>
+        <v>0.0089003959792872</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0003938005390835</v>
+        <v>-0.0008987557958923</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0168123576121688</v>
       </c>
       <c r="N31" t="n">
-        <v>-4.65051133887719</v>
+        <v>0.12027562134172</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3266,11 +3266,7 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3280,7 +3276,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3291,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.999268506736394</v>
+        <v>0.999997705358301</v>
       </c>
       <c r="G32" t="n">
-        <v>0.113207547169811</v>
+        <v>0.0393258426966292</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8490566037735851</v>
+        <v>0.893258426966292</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.457</v>
+        <v>0.493</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0166054401327839</v>
+        <v>-0.025424312902097</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0276896708465673</v>
+        <v>-0.0366084864700992</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0061883189712158</v>
+        <v>-0.0152797062336948</v>
       </c>
       <c r="N32" t="n">
-        <v>-3.63357552139691</v>
+        <v>-5.15706144058762</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3359,7 +3355,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3367,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3382,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.927303514958052</v>
+        <v>0.999999999695777</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.554285714285714</v>
+        <v>0.719101123595506</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.4</v>
+        <v>0.894</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0099795081967213</v>
+        <v>-0.0357475617492933</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0011098422427812</v>
+        <v>-0.0500019237400415</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0187243677375257</v>
+        <v>-0.0249553157191143</v>
       </c>
       <c r="N33" t="n">
-        <v>0.134858218874613</v>
+        <v>-3.99860869678896</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3415,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,7 +3444,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.999998265783945</v>
+        <v>0.999999970016927</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0393258426966292</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8764044943820229</v>
+        <v>0.646067415730337</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.508</v>
+        <v>0.065</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0256761459531481</v>
+        <v>-0.0038872323630968</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0374815558869371</v>
+        <v>-0.0051676428141956</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0145464954782798</v>
+        <v>-0.002699847114026</v>
       </c>
       <c r="N34" t="n">
-        <v>-5.05435943959609</v>
+        <v>-5.98035748168752</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.99999999999955</v>
+        <v>0.998534437184063</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.741573033707865</v>
+        <v>0.859550561797753</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9</v>
+        <v>2.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0455068896333535</v>
+        <v>-0.0862241641337386</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0596243387661388</v>
+        <v>-0.131083314928386</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0336855796343839</v>
+        <v>-0.0460964374655707</v>
       </c>
       <c r="N35" t="n">
-        <v>-5.05632107037261</v>
+        <v>-4.30045706402686</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3627,188 +3627,6 @@
         </is>
       </c>
       <c r="W35" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Oroua tributary at d/s Kimbolton STP</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>15</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0.999999999997864</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.662921348314607</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-0.0050772671067589</v>
-      </c>
-      <c r="L36" t="n">
-        <v>-0.0067972085385878</v>
-      </c>
-      <c r="M36" t="n">
-        <v>-0.0039402246921473</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-7.4665692746455</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>1838188.844</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5561408.891</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Mana_12a</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Oroua tributary at d/s Kimbolton STP</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.999615687854865</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.847457627118644</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-0.0949252168153905</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-0.138691100821597</v>
-      </c>
-      <c r="M37" t="n">
-        <v>-0.0535002761307266</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-4.72264760275574</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>1838188.844</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5561408.891</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Mana_12a</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OrouatributaryatdsKimboltonSTP_ba47b36f2d.xlsx
+++ b/trend_results/Rivers/OrouatributaryatdsKimboltonSTP_ba47b36f2d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="60">
   <si>
     <t>site name</t>
   </si>
@@ -133,49 +133,40 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
     <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -654,38 +645,38 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.258001467721793</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.9655172413793101</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.655</v>
+        <v>10.7</v>
       </c>
       <c r="K2">
-        <v>-0.0031696112627644</v>
+        <v>-0.0351201923076916</v>
       </c>
       <c r="L2">
-        <v>-0.171366169110862</v>
+        <v>-0.132931933609966</v>
       </c>
       <c r="M2">
-        <v>0.152762581910153</v>
+        <v>0.0575168944560918</v>
       </c>
       <c r="N2">
-        <v>-0.0297476420719333</v>
+        <v>-0.328226096333566</v>
       </c>
       <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
       <c r="Q2">
         <v>1838188.844</v>
       </c>
@@ -693,19 +684,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
         <v>55</v>
-      </c>
-      <c r="U2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -725,37 +716,37 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.0099651488995282</v>
+        <v>0.280312179009581</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.6610169491525421</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="K3">
-        <v>0.0022674687266616</v>
+        <v>0.0007525755494505</v>
       </c>
       <c r="L3">
-        <v>0.0008357924849389</v>
+        <v>-0.001493002614943</v>
       </c>
       <c r="M3">
-        <v>0.0045667119497062</v>
+        <v>0.0039834805181746</v>
       </c>
       <c r="N3">
-        <v>10.7974701269604</v>
+        <v>3.27206760630674</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1838188.844</v>
@@ -764,19 +755,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" t="s">
         <v>56</v>
-      </c>
-      <c r="V3" t="s">
-        <v>57</v>
-      </c>
-      <c r="W3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -796,37 +787,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.994230005754871</v>
+        <v>0.97432583371837</v>
       </c>
       <c r="G4">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.915254237288136</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>600</v>
+        <v>506.8</v>
       </c>
       <c r="K4">
-        <v>-102.529231119199</v>
+        <v>-45.2381524725275</v>
       </c>
       <c r="L4">
-        <v>-240.964124057074</v>
+        <v>-119.739602050667</v>
       </c>
       <c r="M4">
-        <v>-26.2040978970524</v>
+        <v>-16.5053209045984</v>
       </c>
       <c r="N4">
-        <v>-17.0882051865332</v>
+        <v>-8.926233715968319</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1838188.844</v>
@@ -835,19 +826,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" t="s">
         <v>57</v>
-      </c>
-      <c r="W4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,13 +858,13 @@
         <v>37</v>
       </c>
       <c r="F5">
-        <v>0.192764905812351</v>
+        <v>0.0407912808387591</v>
       </c>
       <c r="G5">
-        <v>0.69811320754717</v>
+        <v>0.763636363636364</v>
       </c>
       <c r="H5">
-        <v>0.320754716981132</v>
+        <v>0.254545454545455</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -894,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1838188.844</v>
@@ -906,19 +897,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" t="s">
         <v>56</v>
-      </c>
-      <c r="V5" t="s">
-        <v>57</v>
-      </c>
-      <c r="W5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -935,40 +926,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>0.933354505223194</v>
+        <v>0.990647854697164</v>
       </c>
       <c r="G6">
-        <v>0.254237288135593</v>
+        <v>0.338983050847458</v>
       </c>
       <c r="H6">
-        <v>0.220338983050847</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K6">
-        <v>-0.0003069327731092</v>
+        <v>-0.0004009330406147</v>
       </c>
       <c r="L6">
-        <v>-0.0008553864168618</v>
+        <v>-0.0007989865041661</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-7.67331932773109</v>
+        <v>-13.364434687157</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1838188.844</v>
@@ -977,19 +968,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" t="s">
         <v>56</v>
-      </c>
-      <c r="V6" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1006,40 +997,40 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>0.6174140147687051</v>
+        <v>0.723591173019177</v>
       </c>
       <c r="G7">
-        <v>0.11864406779661</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H7">
-        <v>0.88135593220339</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.314</v>
+        <v>0.296</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.0067720035394932</v>
       </c>
       <c r="L7">
-        <v>-0.0382924513022356</v>
+        <v>-0.038337408777598</v>
       </c>
       <c r="M7">
-        <v>0.009656571082961</v>
+        <v>0.0054561641231872</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-2.2878390336126</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1838188.844</v>
@@ -1048,19 +1039,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" t="s">
         <v>56</v>
-      </c>
-      <c r="V7" t="s">
-        <v>57</v>
-      </c>
-      <c r="W7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,37 +1071,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.447942490896577</v>
+        <v>0.852420194320082</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.771929824561403</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.35</v>
+        <v>7.37</v>
       </c>
       <c r="K8">
-        <v>-0.0027211719182475</v>
+        <v>0.0267582417582418</v>
       </c>
       <c r="L8">
-        <v>-0.0529872882392781</v>
+        <v>-0.0200828789198571</v>
       </c>
       <c r="M8">
-        <v>0.0440933226147035</v>
+        <v>0.071814365489351</v>
       </c>
       <c r="N8">
-        <v>-0.0370227471870409</v>
+        <v>0.363069766054841</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1838188.844</v>
@@ -1119,16 +1110,16 @@
         <v>5561408.891</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1145,40 +1136,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>0.528766206292791</v>
+        <v>0.693284313522417</v>
       </c>
       <c r="G9">
         <v>0.0169491525423729</v>
       </c>
       <c r="H9">
-        <v>0.966101694915254</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.35</v>
+        <v>0.306</v>
       </c>
       <c r="K9">
-        <v>-0.0008774046677007</v>
+        <v>-0.0108635599694423</v>
       </c>
       <c r="L9">
-        <v>-0.0433109292629008</v>
+        <v>-0.0652232142857143</v>
       </c>
       <c r="M9">
-        <v>0.023957230156202</v>
+        <v>0.0091254198840787</v>
       </c>
       <c r="N9">
-        <v>-0.250687047914491</v>
+        <v>-3.55018299654978</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1838188.844</v>
@@ -1187,19 +1178,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" t="s">
         <v>55</v>
-      </c>
-      <c r="U9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V9" t="s">
-        <v>57</v>
-      </c>
-      <c r="W9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1219,37 +1210,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.557935040461593</v>
+        <v>0.828895089161989</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.847457627118644</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="K10">
-        <v>-0.0049092741935483</v>
+        <v>-0.0138808379120879</v>
       </c>
       <c r="L10">
-        <v>-0.0494963172415087</v>
+        <v>-0.07742370717028001</v>
       </c>
       <c r="M10">
-        <v>0.0365537534655363</v>
+        <v>0.0110386772587397</v>
       </c>
       <c r="N10">
-        <v>-0.711489013557734</v>
+        <v>-2.20330760509332</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q10">
         <v>1838188.844</v>
@@ -1258,19 +1249,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" t="s">
         <v>55</v>
-      </c>
-      <c r="U10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V10" t="s">
-        <v>57</v>
-      </c>
-      <c r="W10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,7 +1281,7 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.233492630673392</v>
+        <v>0.528916946994621</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1302,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.045</v>
+        <v>0.052</v>
       </c>
       <c r="K11">
-        <v>0.0020068681318681</v>
+        <v>-0.0002508585164835</v>
       </c>
       <c r="L11">
-        <v>-0.0010024794950864</v>
+        <v>-0.0043482142857142</v>
       </c>
       <c r="M11">
-        <v>0.0071778144205473</v>
+        <v>0.0046803489298068</v>
       </c>
       <c r="N11">
-        <v>4.45970695970696</v>
+        <v>-0.482420224006763</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1838188.844</v>
@@ -1329,19 +1320,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" t="s">
+        <v>53</v>
+      </c>
+      <c r="V11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" t="s">
         <v>55</v>
-      </c>
-      <c r="U11" t="s">
-        <v>56</v>
-      </c>
-      <c r="V11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,7 +1352,7 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.437637745657</v>
+        <v>0.755922074728708</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1373,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="K12">
-        <v>0.0209913793103448</v>
+        <v>-0.0583816183816184</v>
       </c>
       <c r="L12">
-        <v>-0.160286489445313</v>
+        <v>-0.202474414493913</v>
       </c>
       <c r="M12">
-        <v>0.192850567736219</v>
+        <v>0.0958130024393305</v>
       </c>
       <c r="N12">
-        <v>1.32856831078132</v>
+        <v>-4.02631850907713</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q12">
         <v>1838188.844</v>
@@ -1400,19 +1391,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1432,37 +1423,37 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.945321671186844</v>
+        <v>0.663838085827261</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.897435897435897</v>
+        <v>0.889830508474576</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.45</v>
+        <v>10.495</v>
       </c>
       <c r="K13">
-        <v>0.0432051865332118</v>
+        <v>0.013283678812744</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.0270582539361824</v>
       </c>
       <c r="M13">
-        <v>0.09751810340791769</v>
+        <v>0.0514876716117936</v>
       </c>
       <c r="N13">
-        <v>0.413446761083367</v>
+        <v>0.126571498930386</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1838188.844</v>
@@ -1471,19 +1462,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" t="s">
+        <v>53</v>
+      </c>
+      <c r="V13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W13" t="s">
         <v>55</v>
-      </c>
-      <c r="U13" t="s">
-        <v>56</v>
-      </c>
-      <c r="V13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1500,40 +1491,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>0.972077576883062</v>
+        <v>0.752161423105316</v>
       </c>
       <c r="G14">
-        <v>0.0168067226890756</v>
+        <v>0.0252100840336134</v>
       </c>
       <c r="H14">
-        <v>0.53781512605042</v>
+        <v>0.512605042016807</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="K14">
-        <v>-0.0011234620642515</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="L14">
-        <v>-0.0023503973630834</v>
+        <v>-0.0011989827152042</v>
       </c>
       <c r="M14">
-        <v>-0.0001999862900223</v>
+        <v>0.0004879159020154</v>
       </c>
       <c r="N14">
-        <v>-4.68109193438141</v>
+        <v>-1.44960609608477</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q14">
         <v>1838188.844</v>
@@ -1542,19 +1533,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V14" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" t="s">
         <v>56</v>
-      </c>
-      <c r="V14" t="s">
-        <v>57</v>
-      </c>
-      <c r="W14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,37 +1565,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.980524211590134</v>
+        <v>0.9993469964846849</v>
       </c>
       <c r="G15">
         <v>0.0168067226890756</v>
       </c>
       <c r="H15">
-        <v>0.756302521008403</v>
+        <v>0.8067226890756301</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>716</v>
+        <v>615.6</v>
       </c>
       <c r="K15">
-        <v>-38.2072599531616</v>
+        <v>-62.1101449275363</v>
       </c>
       <c r="L15">
-        <v>-100.094616978122</v>
+        <v>-133.13791218183</v>
       </c>
       <c r="M15">
-        <v>-6.00048203139695</v>
+        <v>-23.6226419161229</v>
       </c>
       <c r="N15">
-        <v>-5.33620949066503</v>
+        <v>-10.0893672721794</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q15">
         <v>1838188.844</v>
@@ -1613,19 +1604,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" t="s">
         <v>57</v>
-      </c>
-      <c r="W15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1645,13 +1636,13 @@
         <v>37</v>
       </c>
       <c r="F16">
-        <v>0.111432164340851</v>
+        <v>0.156210648428752</v>
       </c>
       <c r="G16">
-        <v>0.745454545454545</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="H16">
-        <v>0.281818181818182</v>
+        <v>0.27027027027027</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -1672,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q16">
         <v>1838188.844</v>
@@ -1684,19 +1675,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
+        <v>53</v>
+      </c>
+      <c r="V16" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" t="s">
         <v>56</v>
-      </c>
-      <c r="V16" t="s">
-        <v>57</v>
-      </c>
-      <c r="W16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1716,25 +1707,25 @@
         <v>38</v>
       </c>
       <c r="F17">
-        <v>0.808571216459984</v>
+        <v>0.951621187679684</v>
       </c>
       <c r="G17">
-        <v>0.26890756302521</v>
+        <v>0.336134453781513</v>
       </c>
       <c r="H17">
-        <v>0.176470588235294</v>
+        <v>0.159663865546218</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.0001581168831168</v>
+        <v>-0.0002311745775182</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1743,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q17">
         <v>1838188.844</v>
@@ -1755,19 +1746,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" t="s">
         <v>56</v>
-      </c>
-      <c r="V17" t="s">
-        <v>57</v>
-      </c>
-      <c r="W17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1784,13 +1775,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>0.0615212070625266</v>
+        <v>0.230856477933188</v>
       </c>
       <c r="G18">
-        <v>0.159663865546218</v>
+        <v>0.151260504201681</v>
       </c>
       <c r="H18">
         <v>0.8151260504201679</v>
@@ -1799,25 +1790,25 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.329</v>
+        <v>0.314</v>
       </c>
       <c r="K18">
-        <v>0.0008335235052487001</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0060639530022253</v>
+        <v>0.0042852274798687</v>
       </c>
       <c r="N18">
-        <v>0.253350609498098</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Q18">
         <v>1838188.844</v>
@@ -1826,19 +1817,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
+        <v>53</v>
+      </c>
+      <c r="V18" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" t="s">
         <v>56</v>
-      </c>
-      <c r="V18" t="s">
-        <v>57</v>
-      </c>
-      <c r="W18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1852,44 +1843,44 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.18924032677149</v>
+        <v>0.174615171811724</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.612068965517241</v>
+        <v>0.606837606837607</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.42</v>
+        <v>7.44</v>
       </c>
       <c r="K19">
-        <v>-0.008837800109285801</v>
+        <v>-0.009986329460013601</v>
       </c>
       <c r="L19">
-        <v>-0.0242457196529962</v>
+        <v>-0.0241758119561956</v>
       </c>
       <c r="M19">
-        <v>0.0073338200187253</v>
+        <v>0.0050051548556025</v>
       </c>
       <c r="N19">
-        <v>-0.119107818184445</v>
+        <v>-0.134224858333517</v>
       </c>
       <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" t="s">
         <v>40</v>
       </c>
-      <c r="P19" t="s">
-        <v>51</v>
-      </c>
       <c r="Q19">
         <v>1838188.844</v>
       </c>
@@ -1897,16 +1888,16 @@
         <v>5561408.891</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1926,37 +1917,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.0366197397319926</v>
+        <v>0.230531567054414</v>
       </c>
       <c r="G20">
         <v>0.0588235294117647</v>
       </c>
       <c r="H20">
-        <v>0.882352941176471</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>0.379</v>
+        <v>0.35</v>
       </c>
       <c r="K20">
-        <v>0.004665602189781</v>
+        <v>0.0014289906103286</v>
       </c>
       <c r="L20">
-        <v>0.0002555728793663</v>
+        <v>-0.0008949020066726</v>
       </c>
       <c r="M20">
-        <v>0.009522779200130499</v>
+        <v>0.0075236930202616</v>
       </c>
       <c r="N20">
-        <v>1.23102960152534</v>
+        <v>0.408283031522468</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Q20">
         <v>1838188.844</v>
@@ -1965,19 +1956,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" t="s">
+        <v>53</v>
+      </c>
+      <c r="V20" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" t="s">
         <v>55</v>
-      </c>
-      <c r="U20" t="s">
-        <v>56</v>
-      </c>
-      <c r="V20" t="s">
-        <v>57</v>
-      </c>
-      <c r="W20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1997,37 +1988,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.941803208495522</v>
+        <v>0.966600965762431</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.747899159663866</v>
+        <v>0.6890756302521009</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="K21">
-        <v>-0.0100022820629849</v>
+        <v>-0.009970427661510401</v>
       </c>
       <c r="L21">
-        <v>-0.0204344769683002</v>
+        <v>-0.0175179856115108</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.0014260074981209</v>
       </c>
       <c r="N21">
-        <v>-1.3160897451296</v>
+        <v>-1.38478161965423</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q21">
         <v>1838188.844</v>
@@ -2036,19 +2027,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
+        <v>52</v>
+      </c>
+      <c r="U21" t="s">
+        <v>53</v>
+      </c>
+      <c r="V21" t="s">
+        <v>54</v>
+      </c>
+      <c r="W21" t="s">
         <v>55</v>
-      </c>
-      <c r="U21" t="s">
-        <v>56</v>
-      </c>
-      <c r="V21" t="s">
-        <v>57</v>
-      </c>
-      <c r="W21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,7 +2059,7 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.999159919190322</v>
+        <v>0.96656981241219</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2080,25 +2071,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.059</v>
+        <v>0.053</v>
       </c>
       <c r="K22">
-        <v>-0.0041543448589626</v>
+        <v>-0.0018337517115472</v>
       </c>
       <c r="L22">
-        <v>-0.0064153981264637</v>
+        <v>-0.0041422694812204</v>
       </c>
       <c r="M22">
-        <v>-0.0013955582460172</v>
+        <v>-0.0001517615539061</v>
       </c>
       <c r="N22">
-        <v>-7.04126247281812</v>
+        <v>-3.45990888971177</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q22">
         <v>1838188.844</v>
@@ -2107,19 +2098,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" t="s">
+        <v>53</v>
+      </c>
+      <c r="V22" t="s">
+        <v>54</v>
+      </c>
+      <c r="W22" t="s">
         <v>55</v>
-      </c>
-      <c r="U22" t="s">
-        <v>56</v>
-      </c>
-      <c r="V22" t="s">
-        <v>57</v>
-      </c>
-      <c r="W22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2133,43 +2124,43 @@
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.966289318863996</v>
+        <v>0.966421040772793</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.873949579831933</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="K23">
-        <v>-0.0998632946001367</v>
+        <v>-0.07232673267326729</v>
       </c>
       <c r="L23">
-        <v>-0.167094785774841</v>
+        <v>-0.145534252512317</v>
       </c>
       <c r="M23">
-        <v>-0.0100866221559341</v>
+        <v>-0.0071462372052365</v>
       </c>
       <c r="N23">
-        <v>-5.48699420879872</v>
+        <v>-4.33094207624355</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q23">
         <v>1838188.844</v>
@@ -2178,19 +2169,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2207,40 +2198,40 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F24">
-        <v>0.047572106881219</v>
+        <v>0.005671414859011</v>
       </c>
       <c r="G24">
-        <v>0.160714285714286</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="I24">
         <v>6</v>
       </c>
       <c r="J24">
-        <v>1.41</v>
+        <v>1.285</v>
       </c>
       <c r="K24">
-        <v>-0.09114334749918269</v>
+        <v>-0.138527180783818</v>
       </c>
       <c r="L24">
-        <v>-0.156393829302188</v>
+        <v>-0.189448538995711</v>
       </c>
       <c r="M24">
-        <v>-0.0400751870974891</v>
+        <v>-0.0683302329611918</v>
       </c>
       <c r="N24">
-        <v>-6.4640671985236</v>
+        <v>-10.7803253528263</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q24">
         <v>1838188.844</v>
@@ -2249,19 +2240,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2281,13 +2272,13 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.805525077358348</v>
+        <v>0.942315003499154</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.851428571428571</v>
+        <v>0.868571428571429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2296,22 +2287,22 @@
         <v>10.37</v>
       </c>
       <c r="K25">
-        <v>0.0166173794358507</v>
+        <v>0.0318647764449291</v>
       </c>
       <c r="L25">
-        <v>-0.0139174994932369</v>
+        <v>-0.001918925911896</v>
       </c>
       <c r="M25">
-        <v>0.0434637937626065</v>
+        <v>0.0533380085355985</v>
       </c>
       <c r="N25">
-        <v>0.160244739014954</v>
+        <v>0.307278461378295</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q25">
         <v>1838188.844</v>
@@ -2320,19 +2311,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" t="s">
+        <v>53</v>
+      </c>
+      <c r="V25" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" t="s">
         <v>55</v>
-      </c>
-      <c r="U25" t="s">
-        <v>56</v>
-      </c>
-      <c r="V25" t="s">
-        <v>57</v>
-      </c>
-      <c r="W25" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2352,37 +2343,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.999999986830674</v>
+        <v>0.999999970016927</v>
       </c>
       <c r="G26">
-        <v>0.0168539325842697</v>
+        <v>0.0224719101123595</v>
       </c>
       <c r="H26">
-        <v>0.533707865168539</v>
+        <v>0.52247191011236</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="K26">
-        <v>-0.0023430892305332</v>
+        <v>-0.0020236854625821</v>
       </c>
       <c r="L26">
-        <v>-0.0033190826303121</v>
+        <v>-0.0029927906167745</v>
       </c>
       <c r="M26">
-        <v>-0.001661737943585</v>
+        <v>-0.0014935967129011</v>
       </c>
       <c r="N26">
-        <v>-7.55835235655889</v>
+        <v>-6.74561820860704</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q26">
         <v>1838188.844</v>
@@ -2391,19 +2382,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
+        <v>53</v>
+      </c>
+      <c r="V26" t="s">
+        <v>54</v>
+      </c>
+      <c r="W26" t="s">
         <v>56</v>
-      </c>
-      <c r="V26" t="s">
-        <v>57</v>
-      </c>
-      <c r="W26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2420,40 +2411,40 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>0.868136544021663</v>
       </c>
       <c r="G27">
         <v>0.0112359550561798</v>
       </c>
       <c r="H27">
-        <v>0.7752808988764049</v>
+        <v>0.803370786516854</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>-5.90108708966193</v>
       </c>
       <c r="L27">
-        <v>-13.2725694278063</v>
+        <v>-20.6623616213844</v>
       </c>
       <c r="M27">
-        <v>8.247653180622221</v>
+        <v>1.99616291998709</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>-0.983514514943655</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27">
         <v>1838188.844</v>
@@ -2462,19 +2453,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V27" t="s">
+        <v>54</v>
+      </c>
+      <c r="W27" t="s">
         <v>57</v>
-      </c>
-      <c r="W27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,13 +2485,13 @@
         <v>37</v>
       </c>
       <c r="F28">
-        <v>0.999999990994102</v>
+        <v>0.99999999981731</v>
       </c>
       <c r="G28">
-        <v>0.547619047619048</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H28">
-        <v>0.470238095238095</v>
+        <v>0.43452380952381</v>
       </c>
       <c r="I28">
         <v>3</v>
@@ -2512,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>-0.0012869251962696</v>
+        <v>-0.0012889245976252</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2521,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q28">
         <v>1838188.844</v>
@@ -2533,19 +2524,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
+        <v>53</v>
+      </c>
+      <c r="V28" t="s">
+        <v>54</v>
+      </c>
+      <c r="W28" t="s">
         <v>56</v>
-      </c>
-      <c r="V28" t="s">
-        <v>57</v>
-      </c>
-      <c r="W28" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2562,16 +2553,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29">
-        <v>0.99815436605051</v>
+        <v>0.9998138163535411</v>
       </c>
       <c r="G29">
-        <v>0.267857142857143</v>
+        <v>0.297752808988764</v>
       </c>
       <c r="H29">
-        <v>0.178571428571429</v>
+        <v>0.162921348314607</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2580,22 +2571,22 @@
         <v>0.004</v>
       </c>
       <c r="K29">
-        <v>-0.0001815959562479</v>
+        <v>-0.0001856888662938</v>
       </c>
       <c r="L29">
-        <v>-0.0003568759101492</v>
+        <v>-0.0003377253814147</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>-4.53989890619821</v>
+        <v>-4.64222165734621</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q29">
         <v>1838188.844</v>
@@ -2604,19 +2595,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
+        <v>53</v>
+      </c>
+      <c r="V29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W29" t="s">
         <v>56</v>
-      </c>
-      <c r="V29" t="s">
-        <v>57</v>
-      </c>
-      <c r="W29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2636,37 +2627,37 @@
         <v>36</v>
       </c>
       <c r="F30">
-        <v>0.999926455359426</v>
+        <v>0.999995499103109</v>
       </c>
       <c r="G30">
-        <v>0.113095238095238</v>
+        <v>0.117977528089888</v>
       </c>
       <c r="H30">
-        <v>0.839285714285714</v>
+        <v>0.831460674157303</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.4425</v>
+        <v>0.4285</v>
       </c>
       <c r="K30">
-        <v>-0.0169767600820232</v>
+        <v>-0.0168344860205238</v>
       </c>
       <c r="L30">
-        <v>-0.0264855351467981</v>
+        <v>-0.0247598953594176</v>
       </c>
       <c r="M30">
-        <v>-0.0080274725274725</v>
+        <v>-0.0091155873004882</v>
       </c>
       <c r="N30">
-        <v>-3.83655595073972</v>
+        <v>-3.92870152170918</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1838188.844</v>
@@ -2675,19 +2666,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
+        <v>53</v>
+      </c>
+      <c r="V30" t="s">
+        <v>54</v>
+      </c>
+      <c r="W30" t="s">
         <v>56</v>
-      </c>
-      <c r="V30" t="s">
-        <v>57</v>
-      </c>
-      <c r="W30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,7 +2698,7 @@
         <v>36</v>
       </c>
       <c r="F31">
-        <v>0.936752671886895</v>
+        <v>0.763958103043745</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2719,25 +2710,25 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>7.4</v>
+        <v>7.42</v>
       </c>
       <c r="K31">
-        <v>0.0089003959792872</v>
+        <v>0.0039983579638753</v>
       </c>
       <c r="L31">
-        <v>-0.0008987557958923</v>
+        <v>-0.0049921910379439</v>
       </c>
       <c r="M31">
-        <v>0.0168123576121688</v>
+        <v>0.0105773226311244</v>
       </c>
       <c r="N31">
-        <v>0.12027562134172</v>
+        <v>0.0538862259282385</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q31">
         <v>1838188.844</v>
@@ -2746,16 +2737,16 @@
         <v>5561408.891</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2775,37 +2766,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.999997705358301</v>
+        <v>0.999999028830826</v>
       </c>
       <c r="G32">
         <v>0.0393258426966292</v>
       </c>
       <c r="H32">
-        <v>0.893258426966292</v>
+        <v>0.887640449438202</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>0.493</v>
+        <v>0.47</v>
       </c>
       <c r="K32">
-        <v>-0.025424312902097</v>
+        <v>-0.0246769453768691</v>
       </c>
       <c r="L32">
-        <v>-0.0366084864700992</v>
+        <v>-0.0354006505297492</v>
       </c>
       <c r="M32">
-        <v>-0.0152797062336948</v>
+        <v>-0.0144622846391674</v>
       </c>
       <c r="N32">
-        <v>-5.15706144058762</v>
+        <v>-5.25041390997215</v>
       </c>
       <c r="O32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q32">
         <v>1838188.844</v>
@@ -2814,19 +2805,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
+        <v>52</v>
+      </c>
+      <c r="U32" t="s">
+        <v>53</v>
+      </c>
+      <c r="V32" t="s">
+        <v>54</v>
+      </c>
+      <c r="W32" t="s">
         <v>55</v>
-      </c>
-      <c r="U32" t="s">
-        <v>56</v>
-      </c>
-      <c r="V32" t="s">
-        <v>57</v>
-      </c>
-      <c r="W32" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,37 +2837,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.999999999695777</v>
+        <v>0.999999999982686</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.719101123595506</v>
+        <v>0.696629213483146</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.894</v>
+        <v>0.855</v>
       </c>
       <c r="K33">
-        <v>-0.0357475617492933</v>
+        <v>-0.0374487354750513</v>
       </c>
       <c r="L33">
-        <v>-0.0500019237400415</v>
+        <v>-0.0501173032419641</v>
       </c>
       <c r="M33">
-        <v>-0.0249553157191143</v>
+        <v>-0.0279454185177935</v>
       </c>
       <c r="N33">
-        <v>-3.99860869678896</v>
+        <v>-4.37996906140951</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q33">
         <v>1838188.844</v>
@@ -2885,19 +2876,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" t="s">
+        <v>53</v>
+      </c>
+      <c r="V33" t="s">
+        <v>54</v>
+      </c>
+      <c r="W33" t="s">
         <v>55</v>
-      </c>
-      <c r="U33" t="s">
-        <v>56</v>
-      </c>
-      <c r="V33" t="s">
-        <v>57</v>
-      </c>
-      <c r="W33" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2917,37 +2908,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.999999970016927</v>
+        <v>0.999999991228807</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.646067415730337</v>
+        <v>0.640449438202247</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.065</v>
+        <v>0.061</v>
       </c>
       <c r="K34">
-        <v>-0.0038872323630968</v>
+        <v>-0.0037136167396395</v>
       </c>
       <c r="L34">
-        <v>-0.0051676428141956</v>
+        <v>-0.0050112733705776</v>
       </c>
       <c r="M34">
-        <v>-0.002699847114026</v>
+        <v>-0.0026701187937861</v>
       </c>
       <c r="N34">
-        <v>-5.98035748168752</v>
+        <v>-6.08789629449106</v>
       </c>
       <c r="O34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1838188.844</v>
@@ -2956,19 +2947,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" t="s">
+        <v>53</v>
+      </c>
+      <c r="V34" t="s">
+        <v>54</v>
+      </c>
+      <c r="W34" t="s">
         <v>55</v>
-      </c>
-      <c r="U34" t="s">
-        <v>56</v>
-      </c>
-      <c r="V34" t="s">
-        <v>57</v>
-      </c>
-      <c r="W34" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2988,37 +2979,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.998534437184063</v>
+        <v>0.999970864177819</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.859550561797753</v>
+        <v>0.837078651685393</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2.005</v>
+        <v>1.99</v>
       </c>
       <c r="K35">
-        <v>-0.0862241641337386</v>
+        <v>-0.109670050348072</v>
       </c>
       <c r="L35">
-        <v>-0.131083314928386</v>
+        <v>-0.146001175755958</v>
       </c>
       <c r="M35">
-        <v>-0.0460964374655707</v>
+        <v>-0.0698436984935024</v>
       </c>
       <c r="N35">
-        <v>-4.30045706402686</v>
+        <v>-5.51105780643578</v>
       </c>
       <c r="O35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q35">
         <v>1838188.844</v>
@@ -3027,19 +3018,19 @@
         <v>5561408.891</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
